--- a/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TR_Fibonacci.xlsx
+++ b/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TR_Fibonacci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>startHeight</t>
   </si>
@@ -31,19 +31,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
-    <t>Recursion Definition</t>
-  </si>
-  <si>
-    <t>Recursion Termination Condition</t>
-  </si>
-  <si>
-    <t>Recursion Step</t>
+    <t>Recursive definition</t>
+  </si>
+  <si>
+    <t>Recursive Step</t>
   </si>
 </sst>
 </file>
@@ -401,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,16 +420,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -443,70 +437,121 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="B5">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="B6">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>254</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>870</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>255</v>
+      </c>
+      <c r="B8">
+        <v>282</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>870</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>283</v>
+      </c>
+      <c r="B9">
+        <v>310</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>870</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
